--- a/Resources/2003/Advanced_Percentile_2003.xlsx
+++ b/Resources/2003/Advanced_Percentile_2003.xlsx
@@ -1339,10 +1339,10 @@
     <t>bryanma01</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Tracy McGrady*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Dirk Nowitzki</t>
@@ -1357,10 +1357,10 @@
     <t>Kevin Garnett</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
-  </si>
-  <si>
-    <t>Ray Allen*</t>
+    <t>Steve Nash</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Chauncey Billups</t>
@@ -1375,7 +1375,7 @@
     <t>Peja Stojakovic</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Matt Harpring</t>
@@ -1390,7 +1390,7 @@
     <t>Michael Redd</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Shareef Abdur-Rahim</t>
@@ -1405,7 +1405,7 @@
     <t>Andrei Kirilenko</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Eddie Jones</t>
@@ -1429,10 +1429,10 @@
     <t>Chris Crawford</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Brad Miller</t>
@@ -1441,7 +1441,7 @@
     <t>Antawn Jamison</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Gilbert Arenas</t>
@@ -1456,7 +1456,7 @@
     <t>Metta World Peace</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Reggie Slater</t>
@@ -1468,7 +1468,7 @@
     <t>Jason Terry</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Wally Szczerbiak</t>
@@ -1519,7 +1519,7 @@
     <t>Kenyon Martin</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Shawn Bradley</t>
@@ -1549,7 +1549,7 @@
     <t>David Wesley</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Zydrunas Ilgauskas</t>
@@ -1573,7 +1573,7 @@
     <t>Stromile Swift</t>
   </si>
   <si>
-    <t>David Robinson*</t>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Doug Christie</t>
@@ -1678,7 +1678,7 @@
     <t>Alvin Williams</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Mike Miller</t>
@@ -2251,7 +2251,7 @@
     <t>Moochie Norris</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>John Salmons</t>
